--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T12:39:32+00:00</t>
+    <t>2024-02-05T14:53:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -933,17 +933,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.31640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.31640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="18.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="19.5703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -952,25 +952,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.79296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.41015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.8359375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.1484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="123.62109375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="122.765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T14:53:04+00:00</t>
+    <t>2024-02-06T11:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T11:30:33+00:00</t>
+    <t>2024-02-06T12:19:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T12:19:49+00:00</t>
+    <t>2024-02-06T14:33:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T14:33:31+00:00</t>
+    <t>2024-02-06T16:19:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T16:19:49+00:00</t>
+    <t>2024-02-07T07:23:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -933,17 +933,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.31640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.31640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="19.5703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="18.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -952,25 +952,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.41015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.8359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.1484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.79296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="122.765625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="123.62109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T07:23:51+00:00</t>
+    <t>2024-02-07T10:40:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T10:40:08+00:00</t>
+    <t>2024-02-07T12:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T12:16:01+00:00</t>
+    <t>2024-02-07T13:26:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T13:26:07+00:00</t>
+    <t>2024-02-07T16:05:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-08T11:21:17+00:00</t>
+    <t>2024-02-08T16:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-08T16:46:36+00:00</t>
+    <t>2024-02-09T06:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -933,17 +933,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.31640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.31640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="19.5703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="18.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -952,25 +952,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.41015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.8359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.1484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.79296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="122.765625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="123.62109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T06:56:29+00:00</t>
+    <t>2024-02-10T09:00:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$21</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-10T09:00:37+00:00</t>
+    <t>2024-02-29T07:38:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -750,6 +753,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1092,7 +1110,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>7</v>
       </c>
@@ -1201,7 +1219,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>83</v>
       </c>
@@ -1312,7 +1330,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>91</v>
       </c>
@@ -1421,7 +1439,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>97</v>
       </c>
@@ -1532,7 +1550,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>103</v>
       </c>
@@ -1643,7 +1661,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>112</v>
       </c>
@@ -1754,7 +1772,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>120</v>
       </c>
@@ -1865,7 +1883,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>128</v>
       </c>
@@ -1976,7 +1994,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>136</v>
       </c>
@@ -2089,7 +2107,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>141</v>
       </c>
@@ -2108,7 +2126,7 @@
         <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>74</v>
@@ -2198,7 +2216,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>146</v>
       </c>
@@ -2305,7 +2323,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>153</v>
       </c>
@@ -2318,13 +2336,13 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>74</v>
@@ -2412,7 +2430,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>157</v>
       </c>
@@ -2431,7 +2449,7 @@
         <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>74</v>
@@ -2521,7 +2539,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>162</v>
       </c>
@@ -2628,7 +2646,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>166</v>
       </c>
@@ -2737,7 +2755,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>170</v>
       </c>
@@ -2846,7 +2864,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>177</v>
       </c>
@@ -2865,7 +2883,7 @@
         <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>74</v>
@@ -2955,7 +2973,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>183</v>
       </c>
@@ -3064,7 +3082,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>187</v>
       </c>
@@ -3175,7 +3193,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>192</v>
       </c>
@@ -3285,6 +3303,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM21">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI20">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T07:38:13+00:00</t>
+    <t>2024-03-05T15:05:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -951,17 +951,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.31640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.31640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="18.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="19.5703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -970,25 +970,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.79296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.41015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.8359375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.1484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="123.62109375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="122.765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T15:05:36+00:00</t>
+    <t>2024-03-06T11:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T11:41:32+00:00</t>
+    <t>2024-03-06T15:16:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T15:16:08+00:00</t>
+    <t>2024-03-20T08:38:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -951,17 +951,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.31640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.31640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="19.5703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="18.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -970,25 +970,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.41015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.8359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.1484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.79296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="122.765625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="123.62109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T08:38:17+00:00</t>
+    <t>2024-03-20T10:33:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -951,17 +951,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.31640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.31640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="18.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="19.5703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -970,25 +970,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.79296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.41015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.8359375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.1484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="123.62109375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="122.765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T10:33:47+00:00</t>
+    <t>2024-03-20T11:14:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T11:14:51+00:00</t>
+    <t>2024-03-20T16:58:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-20T16:58:46+00:00</t>
+    <t>2024-03-21T08:58:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -951,17 +951,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.31640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.31640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="19.5703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="18.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -970,25 +970,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.41015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.8359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.1484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.79296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="122.765625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="123.62109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-21T08:58:26+00:00</t>
+    <t>2024-03-21T14:16:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T11:42:20+00:00</t>
+    <t>2024-03-22T12:58:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -951,17 +951,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.31640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.31640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="18.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="19.5703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -970,25 +970,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.79296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.41015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.8359375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.1484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="123.62109375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="122.765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T12:58:08+00:00</t>
+    <t>2024-03-22T14:34:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T14:34:11+00:00</t>
+    <t>2024-03-22T16:20:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T16:20:37+00:00</t>
+    <t>2024-03-25T12:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T12:19:57+00:00</t>
+    <t>2024-03-25T15:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T15:09:50+00:00</t>
+    <t>2024-03-25T16:04:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T16:04:49+00:00</t>
+    <t>2024-03-26T07:33:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -951,17 +951,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.31640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.31640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="19.5703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="18.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -970,25 +970,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.41015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.8359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.1484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.79296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="122.765625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="123.62109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T07:33:19+00:00</t>
+    <t>2024-03-26T12:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -951,17 +951,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.31640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.31640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="18.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="19.5703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -970,25 +970,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.79296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.41015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.8359375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.1484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="123.62109375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="122.765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T12:37:11+00:00</t>
+    <t>2024-03-26T14:28:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T14:28:58+00:00</t>
+    <t>2024-03-26T14:52:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T14:52:36+00:00</t>
+    <t>2024-03-27T10:43:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T10:43:47+00:00</t>
+    <t>2024-03-27T12:02:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T12:02:55+00:00</t>
+    <t>2024-03-28T06:59:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -951,17 +951,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.31640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.31640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="19.5703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="18.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -970,25 +970,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.41015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.8359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.1484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.79296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="122.765625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="123.62109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T06:59:04+00:00</t>
+    <t>2024-03-28T07:27:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T07:27:12+00:00</t>
+    <t>2024-03-28T15:35:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T15:35:10+00:00</t>
+    <t>2024-04-04T07:58:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T07:58:12+01:00</t>
+    <t>2024-04-09T11:34:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -951,17 +951,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.31640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.31640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="18.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="19.5703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -970,25 +970,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.79296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.41015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.8359375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.1484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="123.62109375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="122.765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-09T11:34:38+01:00</t>
+    <t>2024-04-09T14:59:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-09T14:59:55+01:00</t>
+    <t>2024-04-12T08:32:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -951,17 +951,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.31640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.31640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="19.5703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="18.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -970,25 +970,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.41015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.8359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.1484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.79296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="122.765625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="123.62109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T08:32:19+01:00</t>
+    <t>2024-04-12T10:30:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -951,17 +951,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.31640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.31640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="18.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="19.5703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -970,25 +970,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.79296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.41015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.8359375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.1484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="123.62109375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="122.765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T10:30:08+01:00</t>
+    <t>2024-04-12T11:43:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T11:43:38+01:00</t>
+    <t>2024-04-15T10:54:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-15T10:54:06+01:00</t>
+    <t>2024-04-19T04:03:07+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -951,17 +951,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.31640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.31640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="19.5703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="18.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -970,25 +970,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.41015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.8359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.1484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.79296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="122.765625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="123.62109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-19T04:03:07+01:00</t>
+    <t>2024-04-23T08:00:23+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Slot.xlsx
+++ b/docs/StructureDefinition-Slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T08:00:23+01:00</t>
+    <t>2024-04-24T08:46:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
